--- a/background_material/קובץ אקסל לחישוב שטחי ציבור.xlsx
+++ b/background_material/קובץ אקסל לחישוב שטחי ציבור.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AdiYehezkeli/Documents/HUJI/AI/project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AdiYehezkeli/Documents/HUJI/AI/project/background_material/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4010,18 +4010,49 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4037,77 +4068,35 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="21" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="21" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" readingOrder="2"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="21" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" readingOrder="2"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" readingOrder="2"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="2"/>
     </xf>
     <xf numFmtId="1" fontId="21" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4121,6 +4110,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="1" fontId="21" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -4133,39 +4131,41 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" readingOrder="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" readingOrder="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" readingOrder="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4584,8 +4584,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:V196"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="3" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="81"/>
-      <c r="B3" s="220" t="s">
+      <c r="B3" s="176" t="s">
         <v>312</v>
       </c>
       <c r="C3" s="104" t="s">
@@ -4932,7 +4932,7 @@
         <v>331</v>
       </c>
       <c r="B7" s="130">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C7" s="56"/>
       <c r="J7" s="57"/>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="B8" s="173">
         <f>B6*B7/100</f>
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="C8" s="56"/>
       <c r="J8" s="57"/>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B12" s="133">
         <f>B8*B9</f>
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="C12" s="61"/>
       <c r="J12" s="62"/>
@@ -5047,7 +5047,7 @@
       </c>
       <c r="B13" s="133">
         <f>B12*B10/100</f>
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="C13" s="61"/>
       <c r="J13" s="62"/>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="B14" s="133">
         <f>B13/27</f>
-        <v>5.9259259259259256</v>
+        <v>11.851851851851851</v>
       </c>
       <c r="C14" s="58"/>
       <c r="J14" s="63"/>
@@ -5103,15 +5103,15 @@
       <c r="V16" s="9"/>
     </row>
     <row r="17" spans="1:22" ht="23" x14ac:dyDescent="0.2">
-      <c r="A17" s="179" t="s">
+      <c r="A17" s="187" t="s">
         <v>195</v>
       </c>
-      <c r="B17" s="180"/>
-      <c r="C17" s="180"/>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="181"/>
+      <c r="B17" s="188"/>
+      <c r="C17" s="188"/>
+      <c r="D17" s="188"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="189"/>
       <c r="H17" s="47"/>
       <c r="I17" s="47"/>
       <c r="R17" s="67"/>
@@ -5142,12 +5142,12 @@
     </row>
     <row r="19" spans="1:22" ht="20" x14ac:dyDescent="0.2">
       <c r="A19" s="70"/>
-      <c r="B19" s="182"/>
-      <c r="C19" s="182"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="182"/>
-      <c r="F19" s="182"/>
-      <c r="G19" s="182"/>
+      <c r="B19" s="190"/>
+      <c r="C19" s="190"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="190"/>
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
       <c r="S19" s="134" t="s">
@@ -5213,7 +5213,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="110"/>
-      <c r="H21" s="187"/>
+      <c r="H21" s="185"/>
       <c r="I21" s="67"/>
       <c r="S21" s="134" t="s">
         <v>33</v>
@@ -5223,20 +5223,20 @@
       <c r="V21" s="9"/>
     </row>
     <row r="22" spans="1:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="183" t="s">
+      <c r="A22" s="191" t="s">
         <v>193</v>
       </c>
-      <c r="B22" s="183"/>
+      <c r="B22" s="191"/>
       <c r="C22" s="84">
         <f>שער!$B$12</f>
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="D22" s="86" t="s">
         <v>194</v>
       </c>
       <c r="E22" s="84">
         <f>$B$13</f>
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="F22" s="87" t="s">
         <v>240</v>
@@ -5245,7 +5245,7 @@
         <f>IF(E3="בחר"," ",E3)</f>
         <v>יישוב גדול - מעל חמישים אלף</v>
       </c>
-      <c r="H22" s="187"/>
+      <c r="H22" s="185"/>
       <c r="I22" s="67"/>
       <c r="S22" s="134" t="s">
         <v>299</v>
@@ -5345,9 +5345,9 @@
       <c r="A29" s="148" t="s">
         <v>198</v>
       </c>
-      <c r="B29" s="184">
+      <c r="B29" s="182">
         <f>B13*0.5*3/20</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H29" s="47"/>
       <c r="I29" s="47"/>
@@ -5361,7 +5361,7 @@
     </row>
     <row r="30" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="148"/>
-      <c r="B30" s="185"/>
+      <c r="B30" s="183"/>
       <c r="H30" s="47"/>
       <c r="I30" s="47"/>
       <c r="J30" s="47"/>
@@ -5378,7 +5378,7 @@
     </row>
     <row r="31" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="148"/>
-      <c r="B31" s="185"/>
+      <c r="B31" s="183"/>
       <c r="H31" s="47"/>
       <c r="I31" s="47"/>
       <c r="J31" s="47"/>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="32" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="148"/>
-      <c r="B32" s="185"/>
+      <c r="B32" s="183"/>
       <c r="E32" s="174"/>
       <c r="H32" s="47"/>
       <c r="I32" s="47"/>
@@ -5413,7 +5413,7 @@
     </row>
     <row r="33" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="148"/>
-      <c r="B33" s="185"/>
+      <c r="B33" s="183"/>
       <c r="H33" s="47"/>
       <c r="I33" s="47"/>
       <c r="J33" s="47"/>
@@ -5430,7 +5430,7 @@
     </row>
     <row r="34" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="148"/>
-      <c r="B34" s="185"/>
+      <c r="B34" s="183"/>
       <c r="H34" s="47"/>
       <c r="I34" s="47"/>
       <c r="J34" s="47"/>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="35" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="148"/>
-      <c r="B35" s="185"/>
+      <c r="B35" s="183"/>
       <c r="H35" s="47"/>
       <c r="I35" s="47"/>
       <c r="J35" s="47"/>
@@ -5464,7 +5464,7 @@
     </row>
     <row r="36" spans="1:22" ht="27" x14ac:dyDescent="0.2">
       <c r="A36" s="148"/>
-      <c r="B36" s="185"/>
+      <c r="B36" s="183"/>
       <c r="H36" s="47"/>
       <c r="I36" s="47"/>
       <c r="J36" s="47"/>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="37" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="148"/>
-      <c r="B37" s="186"/>
+      <c r="B37" s="184"/>
       <c r="H37" s="47"/>
       <c r="I37" s="47"/>
       <c r="J37" s="47"/>
@@ -5500,9 +5500,9 @@
       <c r="A38" s="148" t="s">
         <v>199</v>
       </c>
-      <c r="B38" s="184">
+      <c r="B38" s="182">
         <f>IF(C21="חרדי",("-"),(B13*3/30))</f>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H38" s="47"/>
       <c r="I38" s="47"/>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="39" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="148"/>
-      <c r="B39" s="185"/>
+      <c r="B39" s="183"/>
       <c r="H39" s="47"/>
       <c r="I39" s="47"/>
       <c r="R39" s="53"/>
@@ -5529,7 +5529,7 @@
     </row>
     <row r="40" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="148"/>
-      <c r="B40" s="185"/>
+      <c r="B40" s="183"/>
       <c r="H40" s="47"/>
       <c r="I40" s="47"/>
       <c r="R40" s="53"/>
@@ -5542,7 +5542,7 @@
     </row>
     <row r="41" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="148"/>
-      <c r="B41" s="185"/>
+      <c r="B41" s="183"/>
       <c r="H41" s="47"/>
       <c r="I41" s="47"/>
       <c r="R41" s="53"/>
@@ -5555,7 +5555,7 @@
     </row>
     <row r="42" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="148"/>
-      <c r="B42" s="185"/>
+      <c r="B42" s="183"/>
       <c r="H42" s="47"/>
       <c r="I42" s="47"/>
       <c r="R42" s="53"/>
@@ -5568,7 +5568,7 @@
     </row>
     <row r="43" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="148"/>
-      <c r="B43" s="185"/>
+      <c r="B43" s="183"/>
       <c r="H43" s="47"/>
       <c r="I43" s="47"/>
       <c r="R43" s="53"/>
@@ -5581,7 +5581,7 @@
     </row>
     <row r="44" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="148"/>
-      <c r="B44" s="185"/>
+      <c r="B44" s="183"/>
       <c r="H44" s="47"/>
       <c r="I44" s="47"/>
       <c r="R44" s="53"/>
@@ -5594,7 +5594,7 @@
     </row>
     <row r="45" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="148"/>
-      <c r="B45" s="185"/>
+      <c r="B45" s="183"/>
       <c r="H45" s="47"/>
       <c r="I45" s="47"/>
       <c r="R45" s="53"/>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="46" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="148"/>
-      <c r="B46" s="185"/>
+      <c r="B46" s="183"/>
       <c r="H46" s="47"/>
       <c r="I46" s="47"/>
       <c r="R46" s="53"/>
@@ -5620,7 +5620,7 @@
     </row>
     <row r="47" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="148"/>
-      <c r="B47" s="185"/>
+      <c r="B47" s="183"/>
       <c r="H47" s="47"/>
       <c r="I47" s="47"/>
       <c r="R47" s="53"/>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="48" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="148"/>
-      <c r="B48" s="186"/>
+      <c r="B48" s="184"/>
       <c r="H48" s="47"/>
       <c r="I48" s="47"/>
       <c r="R48" s="53"/>
@@ -5648,9 +5648,9 @@
       <c r="A49" s="148" t="s">
         <v>200</v>
       </c>
-      <c r="B49" s="184">
+      <c r="B49" s="182">
         <f>IF(C21="חרדי",("-"),(B13*6/27))</f>
-        <v>35.555555555555557</v>
+        <v>71.111111111111114</v>
       </c>
       <c r="H49" s="47"/>
       <c r="I49" s="47"/>
@@ -5664,7 +5664,7 @@
     </row>
     <row r="50" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="148"/>
-      <c r="B50" s="185"/>
+      <c r="B50" s="183"/>
       <c r="H50" s="47"/>
       <c r="I50" s="47"/>
       <c r="R50" s="53"/>
@@ -5677,7 +5677,7 @@
     </row>
     <row r="51" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="148"/>
-      <c r="B51" s="185"/>
+      <c r="B51" s="183"/>
       <c r="H51" s="47"/>
       <c r="I51" s="47"/>
       <c r="R51" s="53"/>
@@ -5690,7 +5690,7 @@
     </row>
     <row r="52" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="148"/>
-      <c r="B52" s="185"/>
+      <c r="B52" s="183"/>
       <c r="H52" s="47"/>
       <c r="I52" s="47"/>
       <c r="R52" s="53"/>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="53" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="148"/>
-      <c r="B53" s="185"/>
+      <c r="B53" s="183"/>
       <c r="H53" s="47"/>
       <c r="I53" s="47"/>
       <c r="R53" s="53"/>
@@ -5716,7 +5716,7 @@
     </row>
     <row r="54" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="148"/>
-      <c r="B54" s="185"/>
+      <c r="B54" s="183"/>
       <c r="H54" s="47"/>
       <c r="I54" s="47"/>
       <c r="R54" s="53"/>
@@ -5729,7 +5729,7 @@
     </row>
     <row r="55" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="148"/>
-      <c r="B55" s="185"/>
+      <c r="B55" s="183"/>
       <c r="H55" s="47"/>
       <c r="I55" s="47"/>
       <c r="R55" s="53"/>
@@ -5742,7 +5742,7 @@
     </row>
     <row r="56" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="148"/>
-      <c r="B56" s="185"/>
+      <c r="B56" s="183"/>
       <c r="H56" s="47"/>
       <c r="I56" s="47"/>
       <c r="R56" s="53"/>
@@ -5755,7 +5755,7 @@
     </row>
     <row r="57" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="148"/>
-      <c r="B57" s="186"/>
+      <c r="B57" s="184"/>
       <c r="H57" s="47"/>
       <c r="I57" s="47"/>
       <c r="R57" s="53"/>
@@ -5770,7 +5770,7 @@
       <c r="A58" s="148" t="s">
         <v>201</v>
       </c>
-      <c r="B58" s="184">
+      <c r="B58" s="182">
         <f>C63</f>
         <v>0</v>
       </c>
@@ -5786,7 +5786,7 @@
     </row>
     <row r="59" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="148"/>
-      <c r="B59" s="185"/>
+      <c r="B59" s="183"/>
       <c r="H59" s="47"/>
       <c r="I59" s="47"/>
       <c r="R59" s="53"/>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="60" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="148"/>
-      <c r="B60" s="185"/>
+      <c r="B60" s="183"/>
       <c r="H60" s="47"/>
       <c r="I60" s="47"/>
       <c r="R60" s="53"/>
@@ -5812,7 +5812,7 @@
     </row>
     <row r="61" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="148"/>
-      <c r="B61" s="185"/>
+      <c r="B61" s="183"/>
       <c r="H61" s="47"/>
       <c r="I61" s="47"/>
       <c r="R61" s="53"/>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="62" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="148"/>
-      <c r="B62" s="186"/>
+      <c r="B62" s="184"/>
       <c r="H62" s="47"/>
       <c r="I62" s="47"/>
       <c r="R62" s="53"/>
@@ -5842,7 +5842,7 @@
       </c>
       <c r="B63" s="145">
         <f>B13*0.02*3/8</f>
-        <v>1.2000000000000002</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="H63" s="47"/>
       <c r="I63" s="47"/>
@@ -5860,7 +5860,7 @@
       </c>
       <c r="B64" s="145">
         <f>B13*0.02*3/8</f>
-        <v>1.2000000000000002</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="H64" s="47"/>
       <c r="I64" s="47"/>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B66" s="145">
         <f>B13*0.02*9/10</f>
-        <v>2.88</v>
+        <v>5.76</v>
       </c>
       <c r="H66" s="47"/>
       <c r="I66" s="47"/>
@@ -5912,7 +5912,7 @@
       <c r="A67" s="148" t="s">
         <v>241</v>
       </c>
-      <c r="B67" s="184" t="str">
+      <c r="B67" s="182" t="str">
         <f>IF(C21="חרדי",(B13*0.5*3/30),("-"))</f>
         <v>-</v>
       </c>
@@ -5928,7 +5928,7 @@
     </row>
     <row r="68" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="148"/>
-      <c r="B68" s="185"/>
+      <c r="B68" s="183"/>
       <c r="H68" s="47"/>
       <c r="I68" s="47"/>
       <c r="R68" s="53"/>
@@ -5941,7 +5941,7 @@
     </row>
     <row r="69" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="148"/>
-      <c r="B69" s="185"/>
+      <c r="B69" s="183"/>
       <c r="H69" s="47"/>
       <c r="I69" s="47"/>
       <c r="R69" s="53"/>
@@ -5954,7 +5954,7 @@
     </row>
     <row r="70" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="148"/>
-      <c r="B70" s="186"/>
+      <c r="B70" s="184"/>
       <c r="H70" s="47"/>
       <c r="I70" s="47"/>
       <c r="R70" s="53"/>
@@ -5969,7 +5969,7 @@
       <c r="A71" s="148" t="s">
         <v>242</v>
       </c>
-      <c r="B71" s="184" t="str">
+      <c r="B71" s="182" t="str">
         <f>IF(C21="חרדי",(B13*0.5*3/30),("-"))</f>
         <v>-</v>
       </c>
@@ -5985,7 +5985,7 @@
     </row>
     <row r="72" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="148"/>
-      <c r="B72" s="185"/>
+      <c r="B72" s="183"/>
       <c r="H72" s="47"/>
       <c r="I72" s="47"/>
       <c r="R72" s="53"/>
@@ -5998,7 +5998,7 @@
     </row>
     <row r="73" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="148"/>
-      <c r="B73" s="185"/>
+      <c r="B73" s="183"/>
       <c r="H73" s="47"/>
       <c r="I73" s="47"/>
       <c r="R73" s="53"/>
@@ -6011,7 +6011,7 @@
     </row>
     <row r="74" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="148"/>
-      <c r="B74" s="186"/>
+      <c r="B74" s="184"/>
       <c r="H74" s="47"/>
       <c r="I74" s="47"/>
       <c r="R74" s="53"/>
@@ -6026,7 +6026,7 @@
       <c r="A75" s="148" t="s">
         <v>216</v>
       </c>
-      <c r="B75" s="184" t="str">
+      <c r="B75" s="182" t="str">
         <f>IF(C21="חרדי",B13*0.5*9/20,"-")</f>
         <v>-</v>
       </c>
@@ -6042,7 +6042,7 @@
     </row>
     <row r="76" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="148"/>
-      <c r="B76" s="185"/>
+      <c r="B76" s="183"/>
       <c r="H76" s="47"/>
       <c r="I76" s="47"/>
       <c r="R76" s="53"/>
@@ -6055,7 +6055,7 @@
     </row>
     <row r="77" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="148"/>
-      <c r="B77" s="186"/>
+      <c r="B77" s="184"/>
       <c r="H77" s="47"/>
       <c r="I77" s="47"/>
       <c r="R77" s="53"/>
@@ -6070,7 +6070,7 @@
       <c r="A78" s="148" t="s">
         <v>205</v>
       </c>
-      <c r="B78" s="184" t="str">
+      <c r="B78" s="182" t="str">
         <f>IF(C21="חרדי",B13*0.5*8/27,"-")</f>
         <v>-</v>
       </c>
@@ -6086,7 +6086,7 @@
     </row>
     <row r="79" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="148"/>
-      <c r="B79" s="185"/>
+      <c r="B79" s="183"/>
       <c r="H79" s="47"/>
       <c r="I79" s="47"/>
       <c r="R79" s="53"/>
@@ -6099,7 +6099,7 @@
     </row>
     <row r="80" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="148"/>
-      <c r="B80" s="186"/>
+      <c r="B80" s="184"/>
       <c r="H80" s="47"/>
       <c r="I80" s="47"/>
       <c r="R80" s="53"/>
@@ -6114,7 +6114,7 @@
       <c r="A81" s="148" t="s">
         <v>206</v>
       </c>
-      <c r="B81" s="184" t="str">
+      <c r="B81" s="182" t="str">
         <f>IF(C21="חרדי",B13*0.5*4/20,"-")</f>
         <v>-</v>
       </c>
@@ -6130,7 +6130,7 @@
     </row>
     <row r="82" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" s="148"/>
-      <c r="B82" s="185"/>
+      <c r="B82" s="183"/>
       <c r="H82" s="47"/>
       <c r="I82" s="47"/>
       <c r="R82" s="53"/>
@@ -6143,7 +6143,7 @@
     </row>
     <row r="83" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="148"/>
-      <c r="B83" s="186"/>
+      <c r="B83" s="184"/>
       <c r="H83" s="47"/>
       <c r="I83" s="47"/>
       <c r="R83" s="53"/>
@@ -6158,7 +6158,7 @@
       <c r="A84" s="148" t="s">
         <v>207</v>
       </c>
-      <c r="B84" s="184" t="str">
+      <c r="B84" s="182" t="str">
         <f>IF(C21="חרדי",B13*0.5*4/27,"-")</f>
         <v>-</v>
       </c>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="85" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" s="148"/>
-      <c r="B85" s="185"/>
+      <c r="B85" s="183"/>
       <c r="H85" s="47"/>
       <c r="I85" s="47"/>
       <c r="R85" s="53"/>
@@ -6187,7 +6187,7 @@
     </row>
     <row r="86" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" s="148"/>
-      <c r="B86" s="186"/>
+      <c r="B86" s="184"/>
       <c r="H86" s="47"/>
       <c r="I86" s="47"/>
       <c r="R86" s="53"/>
@@ -6230,9 +6230,9 @@
       <c r="A89" s="148" t="s">
         <v>208</v>
       </c>
-      <c r="B89" s="176">
+      <c r="B89" s="180">
         <f>B13*2/100</f>
-        <v>3.2</v>
+        <v>6.4</v>
       </c>
       <c r="H89" s="47"/>
       <c r="I89" s="47"/>
@@ -6246,7 +6246,7 @@
     </row>
     <row r="90" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A90" s="148"/>
-      <c r="B90" s="177"/>
+      <c r="B90" s="186"/>
       <c r="H90" s="47"/>
       <c r="I90" s="47"/>
       <c r="R90" s="53"/>
@@ -6259,7 +6259,7 @@
     </row>
     <row r="91" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" s="148"/>
-      <c r="B91" s="178"/>
+      <c r="B91" s="181"/>
       <c r="H91" s="47"/>
       <c r="I91" s="47"/>
       <c r="R91" s="53"/>
@@ -6274,9 +6274,9 @@
       <c r="A92" s="148" t="s">
         <v>209</v>
       </c>
-      <c r="B92" s="176">
+      <c r="B92" s="180">
         <f>B12*0.1</f>
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="H92" s="47"/>
       <c r="I92" s="47"/>
@@ -6290,7 +6290,7 @@
     </row>
     <row r="93" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A93" s="148"/>
-      <c r="B93" s="178"/>
+      <c r="B93" s="181"/>
       <c r="H93" s="47"/>
       <c r="I93" s="47"/>
       <c r="R93" s="53"/>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="B95" s="145">
         <f>B12*0.075*0.018</f>
-        <v>10.799999999999999</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="H95" s="47"/>
       <c r="I95" s="47"/>
@@ -6340,7 +6340,7 @@
       </c>
       <c r="B96" s="145">
         <f>B12*0.075*0.002</f>
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H96" s="47"/>
       <c r="I96" s="47"/>
@@ -6358,7 +6358,7 @@
       </c>
       <c r="B97" s="145">
         <f>B12*0.011</f>
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="H97" s="47"/>
       <c r="I97" s="47"/>
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B98" s="145">
         <f>IF(B21="מרקם קיים",("-"),(IF(B6&lt;5000,("-"),(B12*0.05)/1000)))</f>
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H98" s="47"/>
       <c r="I98" s="47"/>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="B102" s="145" t="str">
         <f>IF(AND(G22="יישוב קטן - עד חמישים אלף",B12*0.5&lt;3000),"אגף בבית ספר",IF(AND(G22="יישוב קטן - עד חמישים אלף",B12*0.5&lt;5000),"מרכז קטן",IF(AND(G22="יישוב קטן - עד חמישים אלף",B12*0.5&lt;7500),"מרכז בינוני",IF(AND(G22="יישוב קטן - עד חמישים אלף",B12*0.5&gt;7500),"מרכז גדול",IF(AND(G22="יישוב גדול - מעל חמישים אלף",B12*0.2&lt;3000),"אגף בבית ספר",IF(AND(G22="יישוב גדול - מעל חמישים אלף",B12*0.2&lt;5000),"מרכז קטן",IF(AND(G22="יישוב גדול - מעל חמישים אלף",B12*0.2&lt;7500),"מרכז בינוני","לבדיקה פרטנית")))))))</f>
-        <v>אגף בבית ספר</v>
+        <v>מרכז קטן</v>
       </c>
       <c r="H102" s="47"/>
       <c r="I102" s="47"/>
@@ -6451,9 +6451,9 @@
       <c r="A103" s="148" t="s">
         <v>218</v>
       </c>
-      <c r="B103" s="184">
+      <c r="B103" s="182">
         <f>B13*8*0.35</f>
-        <v>448</v>
+        <v>896</v>
       </c>
       <c r="H103" s="47"/>
       <c r="I103" s="47"/>
@@ -6467,7 +6467,7 @@
     </row>
     <row r="104" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A104" s="148"/>
-      <c r="B104" s="186"/>
+      <c r="B104" s="184"/>
       <c r="H104" s="47"/>
       <c r="I104" s="47"/>
       <c r="R104" s="53"/>
@@ -6484,7 +6484,7 @@
       </c>
       <c r="B105" s="146" t="str">
         <f>IF((B12*0.075*0.15)&lt;150,"פחות מ150 משתמשים קבועים- אין סף כניסה",(IF((B12*0.075*0.15)&lt;200,"250-300 מטרים רבועים שטח מבונה",(IF((B12*0.75*0.15&gt;200),B12*0.075*0.15)))))</f>
-        <v>פחות מ150 משתמשים קבועים- אין סף כניסה</v>
+        <v>250-300 מטרים רבועים שטח מבונה</v>
       </c>
       <c r="H105" s="47"/>
       <c r="I105" s="47"/>
@@ -6528,9 +6528,9 @@
       <c r="A108" s="148" t="s">
         <v>211</v>
       </c>
-      <c r="B108" s="184">
+      <c r="B108" s="182">
         <f>IF(OR(C21="ערבי",C21="דרוזי",C21="בדואי"),"-",(((B12*F3)/100)*0.49)*1.1)</f>
-        <v>862.40000000000009</v>
+        <v>1724.8000000000002</v>
       </c>
       <c r="H108" s="47"/>
       <c r="I108" s="47"/>
@@ -6544,7 +6544,7 @@
     </row>
     <row r="109" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="148"/>
-      <c r="B109" s="185"/>
+      <c r="B109" s="183"/>
       <c r="H109" s="47"/>
       <c r="I109" s="47"/>
       <c r="R109" s="53"/>
@@ -6557,7 +6557,7 @@
     </row>
     <row r="110" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A110" s="148"/>
-      <c r="B110" s="185"/>
+      <c r="B110" s="183"/>
       <c r="H110" s="47"/>
       <c r="I110" s="47"/>
       <c r="R110" s="53"/>
@@ -6570,7 +6570,7 @@
     </row>
     <row r="111" spans="1:22" ht="27" x14ac:dyDescent="0.2">
       <c r="A111" s="148"/>
-      <c r="B111" s="185"/>
+      <c r="B111" s="183"/>
       <c r="H111" s="47"/>
       <c r="I111" s="47"/>
       <c r="R111" s="53"/>
@@ -6583,7 +6583,7 @@
     </row>
     <row r="112" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A112" s="148"/>
-      <c r="B112" s="185"/>
+      <c r="B112" s="183"/>
       <c r="H112" s="47"/>
       <c r="I112" s="47"/>
       <c r="R112" s="53"/>
@@ -6596,7 +6596,7 @@
     </row>
     <row r="113" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A113" s="148"/>
-      <c r="B113" s="185"/>
+      <c r="B113" s="183"/>
       <c r="H113" s="47"/>
       <c r="I113" s="47"/>
       <c r="R113" s="53"/>
@@ -6609,7 +6609,7 @@
     </row>
     <row r="114" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A114" s="148"/>
-      <c r="B114" s="186"/>
+      <c r="B114" s="184"/>
       <c r="H114" s="47"/>
       <c r="I114" s="47"/>
       <c r="R114" s="53"/>
@@ -6624,9 +6624,9 @@
       <c r="A115" s="148" t="s">
         <v>210</v>
       </c>
-      <c r="B115" s="184">
+      <c r="B115" s="182">
         <f>(IF(OR(C21="ערבי",C21="דרוזי",C21="בדואי"),"-",(((B12*F3)/100)/22.5)*0.007))</f>
-        <v>0.49777777777777782</v>
+        <v>0.99555555555555564</v>
       </c>
       <c r="H115" s="47"/>
       <c r="I115" s="47"/>
@@ -6640,7 +6640,7 @@
     </row>
     <row r="116" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A116" s="148"/>
-      <c r="B116" s="185"/>
+      <c r="B116" s="183"/>
       <c r="H116" s="47"/>
       <c r="I116" s="47"/>
       <c r="R116" s="53"/>
@@ -6653,7 +6653,7 @@
     </row>
     <row r="117" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A117" s="148"/>
-      <c r="B117" s="186"/>
+      <c r="B117" s="184"/>
       <c r="H117" s="47"/>
       <c r="I117" s="47"/>
       <c r="R117" s="53"/>
@@ -6739,7 +6739,7 @@
       </c>
       <c r="B122" s="145">
         <f>$B$12/25000</f>
-        <v>0.32</v>
+        <v>0.64</v>
       </c>
       <c r="H122" s="47"/>
       <c r="I122" s="47"/>
@@ -6757,7 +6757,7 @@
       </c>
       <c r="B123" s="145">
         <f>$B$12/40000</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H123" s="47"/>
       <c r="I123" s="47"/>
@@ -6803,7 +6803,7 @@
       </c>
       <c r="B126" s="145" t="str">
         <f>IF($B$12&lt;5000,"אין סף כניסה",(IF($B$12&lt;7000,"שיטור קהילתי",(IF($B$12&lt;15000,"נקודת משטרה",(IF($B$12&lt;40000,"תחנה קטנה",(IF($B$12&lt;100000,"תחנה בינונית","תחנה גדולה")))))))))</f>
-        <v>נקודת משטרה</v>
+        <v>תחנה קטנה</v>
       </c>
       <c r="H126" s="47"/>
       <c r="I126" s="47"/>
@@ -6821,7 +6821,7 @@
       </c>
       <c r="B127" s="145" t="str">
         <f>IF($B$12&lt;7000, "אין סף כניסה",(IF($B$12&lt;15000,"תחנה קטנה",(IF($B$12&lt;50000, "תחנה בינונית","תחנה גדולה")))))</f>
-        <v>תחנה קטנה</v>
+        <v>תחנה בינונית</v>
       </c>
       <c r="H127" s="47"/>
       <c r="I127" s="47"/>
@@ -6839,7 +6839,7 @@
       </c>
       <c r="B128" s="145" t="str">
         <f>IF($B$12&lt;15000, "אין סף כניסה",(IF($B$12&lt;30000,"תחנה קטנה",IF($B$12&lt;60000,"תחנה בינונית","תחנה גדולה"))))</f>
-        <v>אין סף כניסה</v>
+        <v>תחנה קטנה</v>
       </c>
       <c r="H128" s="47"/>
       <c r="I128" s="47"/>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="B131" s="147">
         <f>IF($B$21="מרקם קיים",("-"),(IF($B$6&lt;500,("-"),(IF($B$6&lt;5000,($B$12*0.3/1000),($B$12*0.7)/1000)))))</f>
-        <v>5.6</v>
+        <v>11.2</v>
       </c>
       <c r="H131" s="47"/>
       <c r="I131" s="47"/>
@@ -6946,7 +6946,7 @@
       </c>
       <c r="B135" s="145">
         <f>IF($B$21="מתחם חדש", $B$12*4/1000,$B$12*2.4/1000)</f>
-        <v>19.2</v>
+        <v>38.4</v>
       </c>
       <c r="H135" s="47"/>
       <c r="I135" s="47"/>
@@ -6964,7 +6964,7 @@
       </c>
       <c r="B136" s="145">
         <f>IF($B$21="מתחם חדש", $B$12*1/1000,$B$12*0.6/1000)</f>
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="H136" s="47"/>
       <c r="I136" s="47"/>
@@ -7036,7 +7036,7 @@
       </c>
       <c r="B140" s="145">
         <f>$B$135+$B$137+$B$139</f>
-        <v>19.2</v>
+        <v>38.4</v>
       </c>
       <c r="H140" s="47"/>
       <c r="I140" s="47"/>
@@ -7054,7 +7054,7 @@
       </c>
       <c r="B141" s="145">
         <f>$B$136+$B$138</f>
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="H141" s="47"/>
       <c r="I141" s="47"/>
@@ -7083,7 +7083,7 @@
       <c r="A143" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="B143" s="188" t="s">
+      <c r="B143" s="177" t="s">
         <v>263</v>
       </c>
       <c r="H143" s="47"/>
@@ -7100,7 +7100,7 @@
       <c r="A144" s="148" t="s">
         <v>222</v>
       </c>
-      <c r="B144" s="189"/>
+      <c r="B144" s="178"/>
       <c r="H144" s="47"/>
       <c r="I144" s="47"/>
       <c r="R144" s="53"/>
@@ -7115,7 +7115,7 @@
       <c r="A145" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="B145" s="190"/>
+      <c r="B145" s="179"/>
       <c r="H145" s="47"/>
       <c r="I145" s="47"/>
       <c r="R145" s="53"/>
@@ -7713,16 +7713,6 @@
   <sheetProtection selectLockedCells="1"/>
   <dataConsolidate/>
   <mergeCells count="20">
-    <mergeCell ref="B143:B145"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B108:B114"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="B49:B57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="B71:B74"/>
     <mergeCell ref="B89:B91"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="B19:G19"/>
@@ -7733,6 +7723,16 @@
     <mergeCell ref="B29:B37"/>
     <mergeCell ref="B81:B83"/>
     <mergeCell ref="B84:B86"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="B49:B57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B143:B145"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B108:B114"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="B103:B104"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G29:G83">
@@ -10227,29 +10227,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="215" t="s">
+      <c r="B1" s="192" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B2" s="215"/>
+      <c r="B2" s="192"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B3" s="216"/>
+      <c r="B3" s="193"/>
     </row>
     <row r="4" spans="1:36" s="46" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="191" t="s">
+      <c r="A4" s="209" t="s">
         <v>258</v>
       </c>
-      <c r="B4" s="192"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="192"/>
-      <c r="E4" s="192"/>
-      <c r="F4" s="192"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="192"/>
-      <c r="J4" s="193"/>
+      <c r="B4" s="210"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="210"/>
+      <c r="G4" s="210"/>
+      <c r="H4" s="210"/>
+      <c r="I4" s="210"/>
+      <c r="J4" s="211"/>
       <c r="Z4" s="109"/>
       <c r="AA4" s="109"/>
       <c r="AB4" s="109"/>
@@ -10266,16 +10266,16 @@
       <c r="A5" s="150" t="s">
         <v>285</v>
       </c>
-      <c r="B5" s="202" t="s">
+      <c r="B5" s="217" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="192"/>
-      <c r="D5" s="192"/>
-      <c r="E5" s="192"/>
-      <c r="F5" s="192"/>
-      <c r="G5" s="192"/>
-      <c r="H5" s="192"/>
-      <c r="I5" s="193"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="210"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="211"/>
       <c r="J5" s="151"/>
       <c r="K5" s="1"/>
     </row>
@@ -10316,7 +10316,7 @@
       <c r="A7" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="184"/>
+      <c r="B7" s="182"/>
       <c r="C7" s="139"/>
       <c r="D7" s="139"/>
       <c r="E7" s="139"/>
@@ -10328,14 +10328,14 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="199" t="s">
+      <c r="A8" s="203" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="185">
+      <c r="B8" s="183">
         <f>שער!B29</f>
-        <v>12</v>
-      </c>
-      <c r="C8" s="206"/>
+        <v>24</v>
+      </c>
+      <c r="C8" s="200"/>
       <c r="D8" s="89"/>
       <c r="E8" s="89"/>
       <c r="F8" s="89"/>
@@ -10379,9 +10379,9 @@
       </c>
     </row>
     <row r="9" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="200"/>
-      <c r="B9" s="185"/>
-      <c r="C9" s="207"/>
+      <c r="A9" s="204"/>
+      <c r="B9" s="183"/>
+      <c r="C9" s="201"/>
       <c r="D9" s="89"/>
       <c r="E9" s="89"/>
       <c r="F9" s="89"/>
@@ -10393,9 +10393,9 @@
       </c>
     </row>
     <row r="10" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="200"/>
-      <c r="B10" s="185"/>
-      <c r="C10" s="207"/>
+      <c r="A10" s="204"/>
+      <c r="B10" s="183"/>
+      <c r="C10" s="201"/>
       <c r="D10" s="89"/>
       <c r="E10" s="89"/>
       <c r="F10" s="89"/>
@@ -10441,9 +10441,9 @@
       </c>
     </row>
     <row r="11" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="200"/>
-      <c r="B11" s="185"/>
-      <c r="C11" s="207"/>
+      <c r="A11" s="204"/>
+      <c r="B11" s="183"/>
+      <c r="C11" s="201"/>
       <c r="D11" s="89"/>
       <c r="E11" s="89"/>
       <c r="F11" s="89"/>
@@ -10489,9 +10489,9 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="200"/>
-      <c r="B12" s="185"/>
-      <c r="C12" s="207"/>
+      <c r="A12" s="204"/>
+      <c r="B12" s="183"/>
+      <c r="C12" s="201"/>
       <c r="D12" s="89"/>
       <c r="E12" s="89"/>
       <c r="F12" s="89"/>
@@ -10537,9 +10537,9 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="200"/>
-      <c r="B13" s="185"/>
-      <c r="C13" s="207"/>
+      <c r="A13" s="204"/>
+      <c r="B13" s="183"/>
+      <c r="C13" s="201"/>
       <c r="D13" s="89"/>
       <c r="E13" s="89"/>
       <c r="F13" s="89"/>
@@ -10585,9 +10585,9 @@
       </c>
     </row>
     <row r="14" spans="1:36" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="200"/>
-      <c r="B14" s="185"/>
-      <c r="C14" s="207"/>
+      <c r="A14" s="204"/>
+      <c r="B14" s="183"/>
+      <c r="C14" s="201"/>
       <c r="D14" s="89"/>
       <c r="E14" s="90"/>
       <c r="F14" s="90"/>
@@ -10633,9 +10633,9 @@
       </c>
     </row>
     <row r="15" spans="1:36" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="200"/>
-      <c r="B15" s="186"/>
-      <c r="C15" s="207"/>
+      <c r="A15" s="204"/>
+      <c r="B15" s="184"/>
+      <c r="C15" s="201"/>
       <c r="D15" s="89"/>
       <c r="E15" s="89"/>
       <c r="F15" s="89"/>
@@ -10681,9 +10681,9 @@
       </c>
     </row>
     <row r="16" spans="1:36" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="201"/>
-      <c r="B16" s="184"/>
-      <c r="C16" s="208"/>
+      <c r="A16" s="205"/>
+      <c r="B16" s="182"/>
+      <c r="C16" s="202"/>
       <c r="D16" s="89"/>
       <c r="E16" s="89"/>
       <c r="F16" s="89"/>
@@ -10728,14 +10728,14 @@
       </c>
     </row>
     <row r="17" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="199" t="s">
+      <c r="A17" s="203" t="s">
         <v>199</v>
       </c>
-      <c r="B17" s="185">
+      <c r="B17" s="183">
         <f>שער!B38</f>
-        <v>16</v>
-      </c>
-      <c r="C17" s="206"/>
+        <v>32</v>
+      </c>
+      <c r="C17" s="200"/>
       <c r="D17" s="89"/>
       <c r="E17" s="89"/>
       <c r="F17" s="89"/>
@@ -10768,9 +10768,9 @@
       <c r="AI17" s="25"/>
     </row>
     <row r="18" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="200"/>
-      <c r="B18" s="185"/>
-      <c r="C18" s="207"/>
+      <c r="A18" s="204"/>
+      <c r="B18" s="183"/>
+      <c r="C18" s="201"/>
       <c r="D18" s="89"/>
       <c r="E18" s="89"/>
       <c r="F18" s="89"/>
@@ -10798,9 +10798,9 @@
       <c r="AI18" s="79"/>
     </row>
     <row r="19" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="200"/>
-      <c r="B19" s="185"/>
-      <c r="C19" s="207"/>
+      <c r="A19" s="204"/>
+      <c r="B19" s="183"/>
+      <c r="C19" s="201"/>
       <c r="D19" s="89"/>
       <c r="E19" s="89"/>
       <c r="F19" s="89"/>
@@ -10817,9 +10817,9 @@
       <c r="AI19" s="25"/>
     </row>
     <row r="20" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="200"/>
-      <c r="B20" s="185"/>
-      <c r="C20" s="207"/>
+      <c r="A20" s="204"/>
+      <c r="B20" s="183"/>
+      <c r="C20" s="201"/>
       <c r="D20" s="89"/>
       <c r="E20" s="89"/>
       <c r="F20" s="89"/>
@@ -10836,9 +10836,9 @@
       <c r="AI20" s="25"/>
     </row>
     <row r="21" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="200"/>
-      <c r="B21" s="185"/>
-      <c r="C21" s="207"/>
+      <c r="A21" s="204"/>
+      <c r="B21" s="183"/>
+      <c r="C21" s="201"/>
       <c r="D21" s="89"/>
       <c r="E21" s="89"/>
       <c r="F21" s="89"/>
@@ -10855,9 +10855,9 @@
       <c r="AI21" s="25"/>
     </row>
     <row r="22" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="200"/>
-      <c r="B22" s="185"/>
-      <c r="C22" s="207"/>
+      <c r="A22" s="204"/>
+      <c r="B22" s="183"/>
+      <c r="C22" s="201"/>
       <c r="D22" s="89"/>
       <c r="E22" s="89"/>
       <c r="F22" s="89"/>
@@ -10872,9 +10872,9 @@
       <c r="AI22" s="25"/>
     </row>
     <row r="23" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="200"/>
-      <c r="B23" s="185"/>
-      <c r="C23" s="207"/>
+      <c r="A23" s="204"/>
+      <c r="B23" s="183"/>
+      <c r="C23" s="201"/>
       <c r="D23" s="89"/>
       <c r="E23" s="89"/>
       <c r="F23" s="89"/>
@@ -10892,9 +10892,9 @@
       <c r="AI23" s="25"/>
     </row>
     <row r="24" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="200"/>
-      <c r="B24" s="186"/>
-      <c r="C24" s="207"/>
+      <c r="A24" s="204"/>
+      <c r="B24" s="184"/>
+      <c r="C24" s="201"/>
       <c r="D24" s="89"/>
       <c r="E24" s="89"/>
       <c r="F24" s="89"/>
@@ -10913,9 +10913,9 @@
       <c r="AI24" s="24"/>
     </row>
     <row r="25" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="200"/>
-      <c r="B25" s="184"/>
-      <c r="C25" s="207"/>
+      <c r="A25" s="204"/>
+      <c r="B25" s="182"/>
+      <c r="C25" s="201"/>
       <c r="D25" s="89"/>
       <c r="E25" s="89"/>
       <c r="F25" s="89"/>
@@ -10934,9 +10934,9 @@
       <c r="AI25" s="24"/>
     </row>
     <row r="26" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="200"/>
-      <c r="B26" s="185"/>
-      <c r="C26" s="207"/>
+      <c r="A26" s="204"/>
+      <c r="B26" s="183"/>
+      <c r="C26" s="201"/>
       <c r="D26" s="89"/>
       <c r="E26" s="89"/>
       <c r="F26" s="89"/>
@@ -10947,9 +10947,9 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="201"/>
-      <c r="B27" s="185"/>
-      <c r="C27" s="208"/>
+      <c r="A27" s="205"/>
+      <c r="B27" s="183"/>
+      <c r="C27" s="202"/>
       <c r="D27" s="89"/>
       <c r="E27" s="89"/>
       <c r="F27" s="89"/>
@@ -10960,14 +10960,14 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="199" t="s">
+      <c r="A28" s="203" t="s">
         <v>200</v>
       </c>
-      <c r="B28" s="185">
+      <c r="B28" s="183">
         <f>שער!B49</f>
-        <v>35.555555555555557</v>
-      </c>
-      <c r="C28" s="206"/>
+        <v>71.111111111111114</v>
+      </c>
+      <c r="C28" s="200"/>
       <c r="D28" s="89"/>
       <c r="E28" s="89"/>
       <c r="F28" s="89"/>
@@ -10978,9 +10978,9 @@
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="200"/>
-      <c r="B29" s="185"/>
-      <c r="C29" s="207"/>
+      <c r="A29" s="204"/>
+      <c r="B29" s="183"/>
+      <c r="C29" s="201"/>
       <c r="D29" s="89"/>
       <c r="E29" s="89"/>
       <c r="F29" s="89"/>
@@ -10991,9 +10991,9 @@
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="200"/>
-      <c r="B30" s="185"/>
-      <c r="C30" s="207"/>
+      <c r="A30" s="204"/>
+      <c r="B30" s="183"/>
+      <c r="C30" s="201"/>
       <c r="D30" s="89"/>
       <c r="E30" s="89"/>
       <c r="F30" s="89"/>
@@ -11004,9 +11004,9 @@
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="200"/>
-      <c r="B31" s="185"/>
-      <c r="C31" s="207"/>
+      <c r="A31" s="204"/>
+      <c r="B31" s="183"/>
+      <c r="C31" s="201"/>
       <c r="D31" s="89"/>
       <c r="E31" s="89"/>
       <c r="F31" s="89"/>
@@ -11017,9 +11017,9 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="200"/>
-      <c r="B32" s="185"/>
-      <c r="C32" s="207"/>
+      <c r="A32" s="204"/>
+      <c r="B32" s="183"/>
+      <c r="C32" s="201"/>
       <c r="D32" s="89"/>
       <c r="E32" s="89"/>
       <c r="F32" s="89"/>
@@ -11030,9 +11030,9 @@
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="201"/>
-      <c r="B33" s="186"/>
-      <c r="C33" s="208"/>
+      <c r="A33" s="205"/>
+      <c r="B33" s="184"/>
+      <c r="C33" s="202"/>
       <c r="D33" s="89"/>
       <c r="E33" s="89"/>
       <c r="F33" s="89"/>
@@ -11043,14 +11043,14 @@
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="203" t="s">
+      <c r="A34" s="218" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="184">
+      <c r="B34" s="182">
         <f>שער!B58</f>
         <v>0</v>
       </c>
-      <c r="C34" s="212"/>
+      <c r="C34" s="197"/>
       <c r="D34" s="89"/>
       <c r="E34" s="89"/>
       <c r="F34" s="89"/>
@@ -11069,9 +11069,9 @@
       <c r="AI34" s="24"/>
     </row>
     <row r="35" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="204"/>
-      <c r="B35" s="185"/>
-      <c r="C35" s="213"/>
+      <c r="A35" s="219"/>
+      <c r="B35" s="183"/>
+      <c r="C35" s="198"/>
       <c r="D35" s="89"/>
       <c r="E35" s="89"/>
       <c r="F35" s="89"/>
@@ -11090,9 +11090,9 @@
       <c r="AI35" s="129"/>
     </row>
     <row r="36" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="204"/>
-      <c r="B36" s="185"/>
-      <c r="C36" s="213"/>
+      <c r="A36" s="219"/>
+      <c r="B36" s="183"/>
+      <c r="C36" s="198"/>
       <c r="D36" s="89"/>
       <c r="E36" s="89"/>
       <c r="F36" s="89"/>
@@ -11111,9 +11111,9 @@
       <c r="AI36" s="129"/>
     </row>
     <row r="37" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="204"/>
-      <c r="B37" s="185"/>
-      <c r="C37" s="213"/>
+      <c r="A37" s="219"/>
+      <c r="B37" s="183"/>
+      <c r="C37" s="198"/>
       <c r="D37" s="89"/>
       <c r="E37" s="89"/>
       <c r="F37" s="89"/>
@@ -11124,9 +11124,9 @@
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="205"/>
-      <c r="B38" s="185"/>
-      <c r="C38" s="214"/>
+      <c r="A38" s="220"/>
+      <c r="B38" s="183"/>
+      <c r="C38" s="199"/>
       <c r="D38" s="89"/>
       <c r="E38" s="89"/>
       <c r="F38" s="89"/>
@@ -11140,9 +11140,9 @@
       <c r="A39" s="154" t="s">
         <v>202</v>
       </c>
-      <c r="B39" s="185">
+      <c r="B39" s="183">
         <f>שער!B63</f>
-        <v>1.2000000000000002</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="C39" s="111"/>
       <c r="D39" s="89"/>
@@ -11158,9 +11158,9 @@
       <c r="A40" s="154" t="s">
         <v>203</v>
       </c>
-      <c r="B40" s="185">
+      <c r="B40" s="183">
         <f>שער!B64</f>
-        <v>1.2000000000000002</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="C40" s="111"/>
       <c r="D40" s="89"/>
@@ -11176,7 +11176,7 @@
       <c r="A41" s="155" t="s">
         <v>215</v>
       </c>
-      <c r="B41" s="185">
+      <c r="B41" s="183">
         <f>שער!B65</f>
         <v>0</v>
       </c>
@@ -11194,9 +11194,9 @@
       <c r="A42" s="155" t="s">
         <v>204</v>
       </c>
-      <c r="B42" s="186">
+      <c r="B42" s="184">
         <f>שער!B66</f>
-        <v>2.88</v>
+        <v>5.76</v>
       </c>
       <c r="C42" s="111"/>
       <c r="D42" s="89"/>
@@ -11209,14 +11209,14 @@
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="199" t="s">
+      <c r="A43" s="203" t="s">
         <v>241</v>
       </c>
-      <c r="B43" s="184" t="str">
+      <c r="B43" s="182" t="str">
         <f>שער!B67</f>
         <v>-</v>
       </c>
-      <c r="C43" s="209"/>
+      <c r="C43" s="206"/>
       <c r="D43" s="89"/>
       <c r="E43" s="89"/>
       <c r="F43" s="89"/>
@@ -11227,9 +11227,9 @@
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="200"/>
-      <c r="B44" s="185"/>
-      <c r="C44" s="210"/>
+      <c r="A44" s="204"/>
+      <c r="B44" s="183"/>
+      <c r="C44" s="207"/>
       <c r="D44" s="89"/>
       <c r="E44" s="89"/>
       <c r="F44" s="89"/>
@@ -11240,9 +11240,9 @@
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="200"/>
-      <c r="B45" s="185"/>
-      <c r="C45" s="210"/>
+      <c r="A45" s="204"/>
+      <c r="B45" s="183"/>
+      <c r="C45" s="207"/>
       <c r="D45" s="89"/>
       <c r="E45" s="89"/>
       <c r="F45" s="89"/>
@@ -11253,9 +11253,9 @@
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="201"/>
-      <c r="B46" s="185"/>
-      <c r="C46" s="211"/>
+      <c r="A46" s="205"/>
+      <c r="B46" s="183"/>
+      <c r="C46" s="208"/>
       <c r="D46" s="89"/>
       <c r="E46" s="89"/>
       <c r="F46" s="89"/>
@@ -11266,14 +11266,14 @@
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="199" t="s">
+      <c r="A47" s="203" t="s">
         <v>242</v>
       </c>
-      <c r="B47" s="185" t="str">
+      <c r="B47" s="183" t="str">
         <f>שער!B71</f>
         <v>-</v>
       </c>
-      <c r="C47" s="209"/>
+      <c r="C47" s="206"/>
       <c r="D47" s="89"/>
       <c r="E47" s="89"/>
       <c r="F47" s="89"/>
@@ -11284,9 +11284,9 @@
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="200"/>
-      <c r="B48" s="185"/>
-      <c r="C48" s="210"/>
+      <c r="A48" s="204"/>
+      <c r="B48" s="183"/>
+      <c r="C48" s="207"/>
       <c r="D48" s="89"/>
       <c r="E48" s="89"/>
       <c r="F48" s="89"/>
@@ -11297,9 +11297,9 @@
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="200"/>
-      <c r="B49" s="185"/>
-      <c r="C49" s="210"/>
+      <c r="A49" s="204"/>
+      <c r="B49" s="183"/>
+      <c r="C49" s="207"/>
       <c r="D49" s="89"/>
       <c r="E49" s="89"/>
       <c r="F49" s="89"/>
@@ -11310,9 +11310,9 @@
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="201"/>
-      <c r="B50" s="185"/>
-      <c r="C50" s="211"/>
+      <c r="A50" s="205"/>
+      <c r="B50" s="183"/>
+      <c r="C50" s="208"/>
       <c r="D50" s="89"/>
       <c r="E50" s="89"/>
       <c r="F50" s="89"/>
@@ -11323,14 +11323,14 @@
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="199" t="s">
+      <c r="A51" s="203" t="s">
         <v>216</v>
       </c>
-      <c r="B51" s="186" t="str">
+      <c r="B51" s="184" t="str">
         <f>שער!B75</f>
         <v>-</v>
       </c>
-      <c r="C51" s="209"/>
+      <c r="C51" s="206"/>
       <c r="D51" s="89"/>
       <c r="E51" s="89"/>
       <c r="F51" s="89"/>
@@ -11341,9 +11341,9 @@
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="200"/>
-      <c r="B52" s="184"/>
-      <c r="C52" s="210"/>
+      <c r="A52" s="204"/>
+      <c r="B52" s="182"/>
+      <c r="C52" s="207"/>
       <c r="D52" s="89"/>
       <c r="E52" s="89"/>
       <c r="F52" s="89"/>
@@ -11354,9 +11354,9 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="201"/>
-      <c r="B53" s="185"/>
-      <c r="C53" s="210"/>
+      <c r="A53" s="205"/>
+      <c r="B53" s="183"/>
+      <c r="C53" s="207"/>
       <c r="D53" s="89"/>
       <c r="E53" s="89"/>
       <c r="F53" s="89"/>
@@ -11367,11 +11367,11 @@
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="199" t="s">
+      <c r="A54" s="203" t="s">
         <v>205</v>
       </c>
-      <c r="B54" s="185"/>
-      <c r="C54" s="210"/>
+      <c r="B54" s="183"/>
+      <c r="C54" s="207"/>
       <c r="D54" s="89"/>
       <c r="E54" s="89"/>
       <c r="F54" s="89"/>
@@ -11382,9 +11382,9 @@
       <c r="K54" s="1"/>
     </row>
     <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="200"/>
-      <c r="B55" s="185"/>
-      <c r="C55" s="210"/>
+      <c r="A55" s="204"/>
+      <c r="B55" s="183"/>
+      <c r="C55" s="207"/>
       <c r="D55" s="89"/>
       <c r="E55" s="89"/>
       <c r="F55" s="89"/>
@@ -11395,9 +11395,9 @@
       <c r="K55" s="1"/>
     </row>
     <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="201"/>
-      <c r="B56" s="185"/>
-      <c r="C56" s="211"/>
+      <c r="A56" s="205"/>
+      <c r="B56" s="183"/>
+      <c r="C56" s="208"/>
       <c r="D56" s="89"/>
       <c r="E56" s="89"/>
       <c r="F56" s="89"/>
@@ -11408,14 +11408,14 @@
       <c r="K56" s="1"/>
     </row>
     <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="199" t="s">
+      <c r="A57" s="203" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="185" t="str">
+      <c r="B57" s="183" t="str">
         <f>שער!B81</f>
         <v>-</v>
       </c>
-      <c r="C57" s="209"/>
+      <c r="C57" s="206"/>
       <c r="D57" s="89"/>
       <c r="E57" s="89"/>
       <c r="F57" s="89"/>
@@ -11426,9 +11426,9 @@
       <c r="K57" s="1"/>
     </row>
     <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="200"/>
-      <c r="B58" s="185"/>
-      <c r="C58" s="210"/>
+      <c r="A58" s="204"/>
+      <c r="B58" s="183"/>
+      <c r="C58" s="207"/>
       <c r="D58" s="89"/>
       <c r="E58" s="89"/>
       <c r="F58" s="89"/>
@@ -11439,9 +11439,9 @@
       <c r="K58" s="1"/>
     </row>
     <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="201"/>
-      <c r="B59" s="185"/>
-      <c r="C59" s="211"/>
+      <c r="A59" s="205"/>
+      <c r="B59" s="183"/>
+      <c r="C59" s="208"/>
       <c r="D59" s="89"/>
       <c r="E59" s="89"/>
       <c r="F59" s="89"/>
@@ -11452,14 +11452,14 @@
       <c r="K59" s="1"/>
     </row>
     <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="199" t="s">
+      <c r="A60" s="203" t="s">
         <v>207</v>
       </c>
-      <c r="B60" s="186" t="str">
+      <c r="B60" s="184" t="str">
         <f>שער!B84</f>
         <v>-</v>
       </c>
-      <c r="C60" s="209"/>
+      <c r="C60" s="206"/>
       <c r="D60" s="89"/>
       <c r="E60" s="89"/>
       <c r="F60" s="89"/>
@@ -11470,9 +11470,9 @@
       <c r="K60" s="1"/>
     </row>
     <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="200"/>
-      <c r="B61" s="184"/>
-      <c r="C61" s="210"/>
+      <c r="A61" s="204"/>
+      <c r="B61" s="182"/>
+      <c r="C61" s="207"/>
       <c r="D61" s="89"/>
       <c r="E61" s="89"/>
       <c r="F61" s="89"/>
@@ -11483,9 +11483,9 @@
       <c r="K61" s="1"/>
     </row>
     <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="201"/>
-      <c r="B62" s="185"/>
-      <c r="C62" s="211"/>
+      <c r="A62" s="205"/>
+      <c r="B62" s="183"/>
+      <c r="C62" s="208"/>
       <c r="D62" s="89"/>
       <c r="E62" s="89"/>
       <c r="F62" s="89"/>
@@ -11497,7 +11497,7 @@
     </row>
     <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="156"/>
-      <c r="B63" s="185"/>
+      <c r="B63" s="183"/>
       <c r="C63" s="115"/>
       <c r="D63" s="89"/>
       <c r="E63" s="91"/>
@@ -11510,7 +11510,7 @@
     </row>
     <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="156"/>
-      <c r="B64" s="185">
+      <c r="B64" s="183">
         <f>שער!B87</f>
         <v>0</v>
       </c>
@@ -11528,7 +11528,7 @@
       <c r="A65" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="185">
+      <c r="B65" s="183">
         <f>שער!B88</f>
         <v>0</v>
       </c>
@@ -11548,11 +11548,11 @@
       <c r="A66" s="154" t="s">
         <v>208</v>
       </c>
-      <c r="B66" s="185" t="str">
+      <c r="B66" s="183">
         <f>IF((שער!B13*2/100)&lt;1.5,"פחות משתי אחיות אין סף כניסה",(IF((שער!B13*2/100)&lt;2,"שתי אחיות תחנה קטנה",(IF((שער!B13*2/100)&lt;3,"שלוש אחיות תחנה בינונית",(IF((שער!B13*2/100)&lt;4,"ארבע אחיות תחנה גדולה",שער!B13*2/100)))))))</f>
-        <v>ארבע אחיות תחנה גדולה</v>
-      </c>
-      <c r="C66" s="212"/>
+        <v>6.4</v>
+      </c>
+      <c r="C66" s="197"/>
       <c r="D66" s="89"/>
       <c r="E66" s="89"/>
       <c r="F66" s="89"/>
@@ -11564,8 +11564,8 @@
     </row>
     <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="154"/>
-      <c r="B67" s="185"/>
-      <c r="C67" s="213"/>
+      <c r="B67" s="183"/>
+      <c r="C67" s="198"/>
       <c r="D67" s="89"/>
       <c r="E67" s="89"/>
       <c r="F67" s="89"/>
@@ -11577,8 +11577,8 @@
     </row>
     <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="154"/>
-      <c r="B68" s="185"/>
-      <c r="C68" s="214"/>
+      <c r="B68" s="183"/>
+      <c r="C68" s="199"/>
       <c r="D68" s="89"/>
       <c r="E68" s="89"/>
       <c r="F68" s="89"/>
@@ -11592,9 +11592,9 @@
       <c r="A69" s="154" t="s">
         <v>209</v>
       </c>
-      <c r="B69" s="186" t="str">
+      <c r="B69" s="184">
         <f>IF((שער!B12*0.1)&lt;150,"פחות מ-150  מטר מרובע",(IF((שער!B12*0.1)&lt;250,"מרפאה קטנה 200-300 מטר מרובע ",(IF((שער!B12*0.1)&lt;400,"300-500 מטר מרובע מרפאה בינונית",(IF((שער!B12*0.1)&lt;1500,"500-1000 מטר מרובע מרפאה גדולה",(IF((שער!B12*0.1)&gt;1500,שער!B12*0.1)))))))))</f>
-        <v>500-1000 מטר מרובע מרפאה גדולה</v>
+        <v>1600</v>
       </c>
       <c r="C69" s="111"/>
       <c r="D69" s="89"/>
@@ -11608,7 +11608,7 @@
     </row>
     <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="156"/>
-      <c r="B70" s="184"/>
+      <c r="B70" s="182"/>
       <c r="C70" s="112"/>
       <c r="D70" s="89"/>
       <c r="E70" s="89"/>
@@ -11623,7 +11623,7 @@
       <c r="A71" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="185"/>
+      <c r="B71" s="183"/>
       <c r="C71" s="114"/>
       <c r="D71" s="97"/>
       <c r="E71" s="97"/>
@@ -11638,7 +11638,7 @@
       <c r="A72" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="185" t="str">
+      <c r="B72" s="183" t="str">
         <f>IF((שער!B12*0.075*0.018)&lt;40,"פחות מ40 מטופלים- אין סף כניסה",(IF((שער!B12*0.075*0.018)&lt;60,"כ60 מטופלים מרכז קטן",(IF((שער!B12*0.075*0.018)&lt;90,"60-90 מטופלים מרכז בינוני",(IF((שער!B12*0.075*0.018)&lt;140,"90-130 מטופלים מרכז גדול",B82),(IF((שער!B12*0.075*0.018)&gt;140,$B$5*0.075*0.018))))))))</f>
         <v>פחות מ40 מטופלים- אין סף כניסה</v>
       </c>
@@ -11656,7 +11656,7 @@
       <c r="A73" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="B73" s="185" t="str">
+      <c r="B73" s="183" t="str">
         <f>IF((שער!B12*0.075*0.002)&lt;15,"פחות מ15 מטופלים- אין סף כניסה",(IF((שער!B12*0.075*0.002)&lt;30,"כ15 מטופלים מרכז קטן",(IF((שער!B12*0.075*0.002)&lt;30,"כ30 מטופלים מרכז בינוני",(IF((שער!B12*0.075*0.002)&lt;50,"כ30-B10350  מטופלים מרכז גדול",(IF((שער!B12*0.075*0.002)&gt;50,שער!B12*0.075*0.15)))))))))</f>
         <v>פחות מ15 מטופלים- אין סף כניסה</v>
       </c>
@@ -11674,9 +11674,9 @@
       <c r="A74" s="158" t="s">
         <v>327</v>
       </c>
-      <c r="B74" s="185">
+      <c r="B74" s="183">
         <f>שער!B97</f>
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="C74" s="112"/>
       <c r="D74" s="89"/>
@@ -11692,9 +11692,9 @@
       <c r="A75" s="155" t="s">
         <v>221</v>
       </c>
-      <c r="B75" s="185">
+      <c r="B75" s="183">
         <f>שער!B98</f>
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="C75" s="112"/>
       <c r="D75" s="89"/>
@@ -11708,7 +11708,7 @@
     </row>
     <row r="76" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="155"/>
-      <c r="B76" s="185"/>
+      <c r="B76" s="183"/>
       <c r="C76" s="112"/>
       <c r="D76" s="89"/>
       <c r="E76" s="89"/>
@@ -11723,7 +11723,7 @@
       <c r="A77" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="185">
+      <c r="B77" s="183">
         <f>שער!B100</f>
         <v>0</v>
       </c>
@@ -11739,7 +11739,7 @@
     </row>
     <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="159"/>
-      <c r="B78" s="186">
+      <c r="B78" s="184">
         <f>שער!B101</f>
         <v>0</v>
       </c>
@@ -11757,9 +11757,9 @@
       <c r="A79" s="154" t="s">
         <v>251</v>
       </c>
-      <c r="B79" s="184" t="str">
+      <c r="B79" s="182" t="str">
         <f>שער!B102</f>
-        <v>אגף בבית ספר</v>
+        <v>מרכז קטן</v>
       </c>
       <c r="C79" s="111"/>
       <c r="D79" s="89"/>
@@ -11772,12 +11772,12 @@
       <c r="K79" s="1"/>
     </row>
     <row r="80" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="197" t="s">
+      <c r="A80" s="215" t="s">
         <v>323</v>
       </c>
-      <c r="B80" s="185" t="str">
+      <c r="B80" s="183" t="str">
         <f>IF((שער!B13*8*0.35)&lt;250,"פחות מ250 משתמשים קבועים- אין סף כניסה",(IF((שער!B13*8*0.35)&lt;300,"חצי דונם קרקע, 150-250 מטרים רבועים שטח מבונה",(IF((שער!B13*8*0.35)&lt;600,"חצי דונם קרקע, 400 מטרים רבועים שטח מבונה",(IF((שער!B13*8*0.35)&lt;1000,"עד דונם קרקע, 500-750 מטרים רבועים שטח מבונה",(IF((שער!B13*8*0.35&gt;100),שער!B13*8*0.35)))))))))</f>
-        <v>חצי דונם קרקע, 400 מטרים רבועים שטח מבונה</v>
+        <v>עד דונם קרקע, 500-750 מטרים רבועים שטח מבונה</v>
       </c>
       <c r="C80" s="111"/>
       <c r="D80" s="89"/>
@@ -11790,8 +11790,8 @@
       <c r="K80" s="1"/>
     </row>
     <row r="81" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="198"/>
-      <c r="B81" s="185"/>
+      <c r="A81" s="216"/>
+      <c r="B81" s="183"/>
       <c r="C81" s="112"/>
       <c r="D81" s="89"/>
       <c r="E81" s="92"/>
@@ -11806,9 +11806,9 @@
       <c r="A82" s="160" t="s">
         <v>328</v>
       </c>
-      <c r="B82" s="185" t="str">
+      <c r="B82" s="183" t="str">
         <f>IF((שער!B12*0.075*0.15)&lt;150,"פחות מ150 משתמשים קבועים- אין סף כניסה",(IF((שער!B12*0.075*0.15)&lt;200,"250-300 מטרים רבועים שטח מבונה",(IF((שער!B12*0.75*0.15&gt;200),שער!B12*0.075*0.15)))))</f>
-        <v>פחות מ150 משתמשים קבועים- אין סף כניסה</v>
+        <v>250-300 מטרים רבועים שטח מבונה</v>
       </c>
       <c r="C82" s="112"/>
       <c r="D82" s="89"/>
@@ -11822,7 +11822,7 @@
     </row>
     <row r="83" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="160"/>
-      <c r="B83" s="185"/>
+      <c r="B83" s="183"/>
       <c r="C83" s="112"/>
       <c r="D83" s="89"/>
       <c r="E83" s="92"/>
@@ -11837,7 +11837,7 @@
       <c r="A84" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="185"/>
+      <c r="B84" s="183"/>
       <c r="C84" s="117"/>
       <c r="D84" s="98"/>
       <c r="E84" s="98"/>
@@ -11849,14 +11849,14 @@
       <c r="K84" s="1"/>
     </row>
     <row r="85" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="194" t="s">
+      <c r="A85" s="212" t="s">
         <v>211</v>
       </c>
-      <c r="B85" s="185">
+      <c r="B85" s="183">
         <f>שער!B108</f>
-        <v>862.40000000000009</v>
-      </c>
-      <c r="C85" s="217"/>
+        <v>1724.8000000000002</v>
+      </c>
+      <c r="C85" s="194"/>
       <c r="D85" s="89"/>
       <c r="E85" s="92"/>
       <c r="F85" s="92"/>
@@ -11867,9 +11867,9 @@
       <c r="K85" s="1"/>
     </row>
     <row r="86" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="195"/>
-      <c r="B86" s="185"/>
-      <c r="C86" s="218"/>
+      <c r="A86" s="213"/>
+      <c r="B86" s="183"/>
+      <c r="C86" s="195"/>
       <c r="D86" s="89"/>
       <c r="E86" s="92"/>
       <c r="F86" s="92"/>
@@ -11880,9 +11880,9 @@
       <c r="K86" s="1"/>
     </row>
     <row r="87" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="195"/>
-      <c r="B87" s="186"/>
-      <c r="C87" s="218"/>
+      <c r="A87" s="213"/>
+      <c r="B87" s="184"/>
+      <c r="C87" s="195"/>
       <c r="D87" s="89"/>
       <c r="E87" s="92"/>
       <c r="F87" s="92"/>
@@ -11893,9 +11893,9 @@
       <c r="K87" s="1"/>
     </row>
     <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="195"/>
-      <c r="B88" s="184"/>
-      <c r="C88" s="218"/>
+      <c r="A88" s="213"/>
+      <c r="B88" s="182"/>
+      <c r="C88" s="195"/>
       <c r="D88" s="89"/>
       <c r="E88" s="92"/>
       <c r="F88" s="92"/>
@@ -11906,9 +11906,9 @@
       <c r="K88" s="1"/>
     </row>
     <row r="89" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="195"/>
-      <c r="B89" s="185"/>
-      <c r="C89" s="218"/>
+      <c r="A89" s="213"/>
+      <c r="B89" s="183"/>
+      <c r="C89" s="195"/>
       <c r="D89" s="89"/>
       <c r="E89" s="89"/>
       <c r="F89" s="89"/>
@@ -11919,9 +11919,9 @@
       <c r="K89" s="1"/>
     </row>
     <row r="90" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="195"/>
-      <c r="B90" s="185"/>
-      <c r="C90" s="218"/>
+      <c r="A90" s="213"/>
+      <c r="B90" s="183"/>
+      <c r="C90" s="195"/>
       <c r="D90" s="89"/>
       <c r="E90" s="89"/>
       <c r="F90" s="89"/>
@@ -11932,9 +11932,9 @@
       <c r="K90" s="1"/>
     </row>
     <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="196"/>
-      <c r="B91" s="185"/>
-      <c r="C91" s="219"/>
+      <c r="A91" s="214"/>
+      <c r="B91" s="183"/>
+      <c r="C91" s="196"/>
       <c r="D91" s="89"/>
       <c r="E91" s="89"/>
       <c r="F91" s="89"/>
@@ -11948,7 +11948,7 @@
       <c r="A92" s="154" t="s">
         <v>324</v>
       </c>
-      <c r="B92" s="185" t="str">
+      <c r="B92" s="183" t="str">
         <f>IF((שער!B115&lt;1)," אין סף כניסה",(IF((שער!B115&lt;4),"חצי דונם",(IF((שער!B115&gt;4),"מקווה אחד על חצי דונם ועוד  משולב כשטח מבונה",שער!B115)))))</f>
         <v xml:space="preserve"> אין סף כניסה</v>
       </c>
@@ -11964,7 +11964,7 @@
     </row>
     <row r="93" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="156"/>
-      <c r="B93" s="185">
+      <c r="B93" s="183">
         <f>שער!B116</f>
         <v>0</v>
       </c>
@@ -11980,7 +11980,7 @@
     </row>
     <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="156"/>
-      <c r="B94" s="185">
+      <c r="B94" s="183">
         <f>שער!B117</f>
         <v>0</v>
       </c>
@@ -11996,7 +11996,7 @@
     </row>
     <row r="95" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="160"/>
-      <c r="B95" s="185">
+      <c r="B95" s="183">
         <f>שער!B107</f>
         <v>0</v>
       </c>
@@ -12014,7 +12014,7 @@
       <c r="A96" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="B96" s="186">
+      <c r="B96" s="184">
         <f>שער!B118</f>
         <v>0</v>
       </c>
@@ -12032,7 +12032,7 @@
       <c r="A97" s="162" t="s">
         <v>246</v>
       </c>
-      <c r="B97" s="184" t="str">
+      <c r="B97" s="182" t="str">
         <f>שער!B119</f>
         <v>-</v>
       </c>
@@ -12050,7 +12050,7 @@
       <c r="A98" s="155" t="s">
         <v>244</v>
       </c>
-      <c r="B98" s="185" t="str">
+      <c r="B98" s="183" t="str">
         <f>שער!B120</f>
         <v>-</v>
       </c>
@@ -12068,7 +12068,7 @@
       <c r="A99" s="163" t="s">
         <v>245</v>
       </c>
-      <c r="B99" s="185" t="str">
+      <c r="B99" s="183" t="str">
         <f>שער!B121</f>
         <v>-</v>
       </c>
@@ -12086,9 +12086,9 @@
       <c r="A100" s="163" t="s">
         <v>243</v>
       </c>
-      <c r="B100" s="185">
+      <c r="B100" s="183">
         <f>שער!B122</f>
-        <v>0.32</v>
+        <v>0.64</v>
       </c>
       <c r="C100" s="112"/>
       <c r="D100" s="93"/>
@@ -12104,9 +12104,9 @@
       <c r="A101" s="163" t="s">
         <v>220</v>
       </c>
-      <c r="B101" s="185">
+      <c r="B101" s="183">
         <f>שער!B123</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C101" s="112"/>
       <c r="D101" s="94"/>
@@ -12120,7 +12120,7 @@
     </row>
     <row r="102" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="164"/>
-      <c r="B102" s="185">
+      <c r="B102" s="183">
         <f>שער!B124</f>
         <v>0</v>
       </c>
@@ -12138,7 +12138,7 @@
       <c r="A103" s="157" t="s">
         <v>227</v>
       </c>
-      <c r="B103" s="185">
+      <c r="B103" s="183">
         <f>שער!B125</f>
         <v>0</v>
       </c>
@@ -12156,9 +12156,9 @@
       <c r="A104" s="155" t="s">
         <v>247</v>
       </c>
-      <c r="B104" s="185" t="str">
+      <c r="B104" s="183" t="str">
         <f>IF(שער!$B$12&lt;5000,"אין סף כניסה",(IF(שער!$B$12&lt;7000,"שיטור קהילתי",(IF(שער!$B$12&lt;15000,"נקודת משטרה",(IF(שער!$B$12&lt;40000,"תחנה קטנה",(IF(שער!$B$12&lt;100000,"תחנה בינונית","תחנה גדולה")))))))))</f>
-        <v>נקודת משטרה</v>
+        <v>תחנה קטנה</v>
       </c>
       <c r="C104" s="111"/>
       <c r="D104" s="89"/>
@@ -12174,9 +12174,9 @@
       <c r="A105" s="155" t="s">
         <v>248</v>
       </c>
-      <c r="B105" s="186" t="str">
+      <c r="B105" s="184" t="str">
         <f>IF(שער!$B$12&lt;7000, "אין סף כניסה",(IF(שער!$B$12&lt;15000,"תחנה קטנה",(IF(שער!$B$12&lt;50000, "תחנה בינונית","תחנה גדולה")))))</f>
-        <v>תחנה קטנה</v>
+        <v>תחנה בינונית</v>
       </c>
       <c r="C105" s="111"/>
       <c r="D105" s="89"/>
@@ -12192,9 +12192,9 @@
       <c r="A106" s="155" t="s">
         <v>249</v>
       </c>
-      <c r="B106" s="184" t="str">
+      <c r="B106" s="182" t="str">
         <f>IF(שער!$B$12&lt;15000, "אין סף כניסה",(IF(שער!$B$12&lt;30000,"תחנה קטנה",IF(שער!$B$12&lt;60000,"תחנה בינונית","תחנה גדולה"))))</f>
-        <v>אין סף כניסה</v>
+        <v>תחנה קטנה</v>
       </c>
       <c r="C106" s="111"/>
       <c r="D106" s="89"/>
@@ -12208,7 +12208,7 @@
     </row>
     <row r="107" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="155"/>
-      <c r="B107" s="185">
+      <c r="B107" s="183">
         <f>שער!B129</f>
         <v>0</v>
       </c>
@@ -12226,7 +12226,7 @@
       <c r="A108" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="B108" s="185">
+      <c r="B108" s="183">
         <f>שער!B130</f>
         <v>0</v>
       </c>
@@ -12244,9 +12244,9 @@
       <c r="A109" s="155" t="s">
         <v>219</v>
       </c>
-      <c r="B109" s="185">
+      <c r="B109" s="183">
         <f>שער!B131</f>
-        <v>5.6</v>
+        <v>11.2</v>
       </c>
       <c r="C109" s="111"/>
       <c r="D109" s="93"/>
@@ -12260,7 +12260,7 @@
     </row>
     <row r="110" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="166"/>
-      <c r="B110" s="185">
+      <c r="B110" s="183">
         <f>שער!B133</f>
         <v>0</v>
       </c>
@@ -12278,7 +12278,7 @@
       <c r="A111" s="167" t="s">
         <v>13</v>
       </c>
-      <c r="B111" s="185">
+      <c r="B111" s="183">
         <f>שער!B134</f>
         <v>0</v>
       </c>
@@ -12296,9 +12296,9 @@
       <c r="A112" s="168" t="s">
         <v>315</v>
       </c>
-      <c r="B112" s="185">
+      <c r="B112" s="183">
         <f>שער!B135</f>
-        <v>19.2</v>
+        <v>38.4</v>
       </c>
       <c r="C112" s="111"/>
       <c r="D112" s="89"/>
@@ -12314,9 +12314,9 @@
       <c r="A113" s="168" t="s">
         <v>314</v>
       </c>
-      <c r="B113" s="185">
+      <c r="B113" s="183">
         <f>שער!B136</f>
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="C113" s="122"/>
       <c r="D113" s="95"/>
@@ -12332,7 +12332,7 @@
       <c r="A114" s="168" t="s">
         <v>316</v>
       </c>
-      <c r="B114" s="186">
+      <c r="B114" s="184">
         <f>שער!B137</f>
         <v>0</v>
       </c>
@@ -12350,7 +12350,7 @@
       <c r="A115" s="168" t="s">
         <v>317</v>
       </c>
-      <c r="B115" s="184">
+      <c r="B115" s="182">
         <f>שער!B138</f>
         <v>0</v>
       </c>
@@ -12368,7 +12368,7 @@
       <c r="A116" s="169" t="s">
         <v>318</v>
       </c>
-      <c r="B116" s="185" t="str">
+      <c r="B116" s="183" t="str">
         <f>שער!B139</f>
         <v>0</v>
       </c>
@@ -12386,9 +12386,9 @@
       <c r="A117" s="169" t="s">
         <v>319</v>
       </c>
-      <c r="B117" s="185">
+      <c r="B117" s="183">
         <f>שער!B140</f>
-        <v>19.2</v>
+        <v>38.4</v>
       </c>
       <c r="C117" s="122"/>
       <c r="D117" s="96"/>
@@ -12404,9 +12404,9 @@
       <c r="A118" s="169" t="s">
         <v>320</v>
       </c>
-      <c r="B118" s="185">
+      <c r="B118" s="183">
         <f>שער!B141</f>
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="C118" s="123"/>
       <c r="D118" s="89"/>
@@ -12420,7 +12420,7 @@
     </row>
     <row r="119" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="155"/>
-      <c r="B119" s="185">
+      <c r="B119" s="183">
         <f>שער!B142</f>
         <v>0</v>
       </c>
@@ -12438,15 +12438,15 @@
       <c r="A120" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="B120" s="185"/>
-      <c r="C120" s="184"/>
+      <c r="B120" s="183"/>
+      <c r="C120" s="182"/>
       <c r="D120" s="143"/>
       <c r="E120" s="143"/>
-      <c r="F120" s="184">
+      <c r="F120" s="182">
         <f>SUM(F8:F109)</f>
         <v>0</v>
       </c>
-      <c r="G120" s="184"/>
+      <c r="G120" s="182"/>
       <c r="H120" s="143"/>
       <c r="I120" s="143"/>
       <c r="J120" s="144"/>
@@ -12456,15 +12456,15 @@
       <c r="A121" s="170" t="s">
         <v>222</v>
       </c>
-      <c r="B121" s="185"/>
-      <c r="C121" s="185"/>
+      <c r="B121" s="183"/>
+      <c r="C121" s="183"/>
       <c r="D121" s="143"/>
       <c r="E121" s="143"/>
-      <c r="F121" s="185">
+      <c r="F121" s="183">
         <f>שער!B140</f>
-        <v>19.2</v>
-      </c>
-      <c r="G121" s="185"/>
+        <v>38.4</v>
+      </c>
+      <c r="G121" s="183"/>
       <c r="H121" s="143"/>
       <c r="I121" s="143"/>
       <c r="J121" s="144"/>
@@ -12474,15 +12474,15 @@
       <c r="A122" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="B122" s="185"/>
-      <c r="C122" s="185"/>
+      <c r="B122" s="183"/>
+      <c r="C122" s="183"/>
       <c r="D122" s="143"/>
       <c r="E122" s="143"/>
-      <c r="F122" s="185">
+      <c r="F122" s="183">
         <f>SUM(F120:F121)</f>
-        <v>19.2</v>
-      </c>
-      <c r="G122" s="185"/>
+        <v>38.4</v>
+      </c>
+      <c r="G122" s="183"/>
       <c r="H122" s="143"/>
       <c r="I122" s="143"/>
       <c r="J122" s="144"/>
@@ -12686,6 +12686,32 @@
   </sheetData>
   <sheetProtection password="CAF7" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="42">
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A85:A91"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A17:A27"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="C8:C16"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="C17:C27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="B52:B60"/>
+    <mergeCell ref="B61:B69"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C60:C62"/>
     <mergeCell ref="B70:B78"/>
     <mergeCell ref="B79:B87"/>
     <mergeCell ref="B88:B96"/>
@@ -12702,32 +12728,6 @@
     <mergeCell ref="B34:B42"/>
     <mergeCell ref="B43:B51"/>
     <mergeCell ref="C85:C91"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="C17:C27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="B52:B60"/>
-    <mergeCell ref="B61:B69"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A85:A91"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A17:A27"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="C8:C16"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C47:C50"/>
   </mergeCells>
   <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H104">
